--- a/public/ValueSet-DeqmOperationOutcomeValueSet.xlsx
+++ b/public/ValueSet-DeqmOperationOutcomeValueSet.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T12:45:52-05:00</t>
+    <t>2022-03-22T22:37:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-DeqmOperationOutcomeValueSet.xlsx
+++ b/public/ValueSet-DeqmOperationOutcomeValueSet.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T22:37:07-05:00</t>
+    <t>2022-03-22T23:07:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-DeqmOperationOutcomeValueSet.xlsx
+++ b/public/ValueSet-DeqmOperationOutcomeValueSet.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T23:07:19-05:00</t>
+    <t>2022-03-22T23:10:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
